--- a/dmsan/newgen/scores/South Africa/sys_uncertainties.xlsx
+++ b/dmsan/newgen/scores/South Africa/sys_uncertainties.xlsx
@@ -32782,16 +32782,16 @@
         <v>0</v>
       </c>
       <c r="F4" t="n">
-        <v>0.1760070848028028</v>
+        <v>0.1752962353458843</v>
       </c>
       <c r="G4" t="n">
-        <v>7.686227864861747</v>
+        <v>7.680510291410595</v>
       </c>
       <c r="H4" t="n">
-        <v>9.920652314709979</v>
+        <v>9.890773123212169</v>
       </c>
       <c r="I4" t="n">
-        <v>113.1933788306044</v>
+        <v>112.9081165688382</v>
       </c>
     </row>
     <row r="5">
@@ -32799,10 +32799,10 @@
         <v>1</v>
       </c>
       <c r="B5" t="n">
-        <v>56.59796205194618</v>
+        <v>56.59796205194617</v>
       </c>
       <c r="C5" t="n">
-        <v>49.33122531644389</v>
+        <v>49.3312253164439</v>
       </c>
       <c r="D5" t="n">
         <v>38.82250193611885</v>
@@ -32811,16 +32811,16 @@
         <v>0</v>
       </c>
       <c r="F5" t="n">
-        <v>0.38755021738329</v>
+        <v>0.3863771652184195</v>
       </c>
       <c r="G5" t="n">
-        <v>13.63736284780492</v>
+        <v>13.6262031666408</v>
       </c>
       <c r="H5" t="n">
-        <v>18.0750768575118</v>
+        <v>18.02621012428851</v>
       </c>
       <c r="I5" t="n">
-        <v>244.327057356695</v>
+        <v>243.7133427979692</v>
       </c>
     </row>
     <row r="6">
@@ -32831,7 +32831,7 @@
         <v>60.36527931864049</v>
       </c>
       <c r="C6" t="n">
-        <v>37.30584150445954</v>
+        <v>37.30584150445955</v>
       </c>
       <c r="D6" t="n">
         <v>29.9421225468016</v>
@@ -32840,16 +32840,16 @@
         <v>0</v>
       </c>
       <c r="F6" t="n">
-        <v>0.2765184603953053</v>
+        <v>0.27572929180563</v>
       </c>
       <c r="G6" t="n">
-        <v>23.20195488076906</v>
+        <v>23.19471968698534</v>
       </c>
       <c r="H6" t="n">
-        <v>14.16214981448396</v>
+        <v>14.12676905282256</v>
       </c>
       <c r="I6" t="n">
-        <v>190.3727663986963</v>
+        <v>189.93155365243</v>
       </c>
     </row>
     <row r="7">
@@ -32860,7 +32860,7 @@
         <v>47.52978202074475</v>
       </c>
       <c r="C7" t="n">
-        <v>34.07817747978756</v>
+        <v>34.07817747978753</v>
       </c>
       <c r="D7" t="n">
         <v>22.04718628232458</v>
@@ -32869,16 +32869,16 @@
         <v>0</v>
       </c>
       <c r="F7" t="n">
-        <v>0.2304828016745328</v>
+        <v>0.2300482504773899</v>
       </c>
       <c r="G7" t="n">
-        <v>10.28150872217592</v>
+        <v>10.27799361701228</v>
       </c>
       <c r="H7" t="n">
-        <v>10.23350206555928</v>
+        <v>10.21807293892484</v>
       </c>
       <c r="I7" t="n">
-        <v>157.6597520022641</v>
+        <v>157.4493261850509</v>
       </c>
     </row>
     <row r="8">
@@ -32886,10 +32886,10 @@
         <v>4</v>
       </c>
       <c r="B8" t="n">
-        <v>42.18652330129802</v>
+        <v>42.18652330129801</v>
       </c>
       <c r="C8" t="n">
-        <v>38.18128986128745</v>
+        <v>38.18128986128744</v>
       </c>
       <c r="D8" t="n">
         <v>17.96811659279541</v>
@@ -32898,16 +32898,16 @@
         <v>0</v>
       </c>
       <c r="F8" t="n">
-        <v>0.13614019955511</v>
+        <v>0.1349719729975042</v>
       </c>
       <c r="G8" t="n">
-        <v>15.5409733550583</v>
+        <v>15.53087313740339</v>
       </c>
       <c r="H8" t="n">
-        <v>7.681388352912071</v>
+        <v>7.631378607625457</v>
       </c>
       <c r="I8" t="n">
-        <v>100.3133133673059</v>
+        <v>99.76798311721235</v>
       </c>
     </row>
     <row r="9">
@@ -32915,28 +32915,28 @@
         <v>5</v>
       </c>
       <c r="B9" t="n">
-        <v>47.80148205074729</v>
+        <v>47.80148205074727</v>
       </c>
       <c r="C9" t="n">
-        <v>46.89433384781874</v>
+        <v>46.89433384781873</v>
       </c>
       <c r="D9" t="n">
-        <v>27.44604625707638</v>
+        <v>27.44604625707637</v>
       </c>
       <c r="E9" t="n">
         <v>0</v>
       </c>
       <c r="F9" t="n">
-        <v>0.2662495941073388</v>
+        <v>0.2649466301375716</v>
       </c>
       <c r="G9" t="n">
-        <v>13.80581388764092</v>
+        <v>13.79545948223989</v>
       </c>
       <c r="H9" t="n">
-        <v>11.14337034770696</v>
+        <v>11.09682666375222</v>
       </c>
       <c r="I9" t="n">
-        <v>151.276043835923</v>
+        <v>150.7109415797834</v>
       </c>
     </row>
     <row r="10">
@@ -32944,7 +32944,7 @@
         <v>6</v>
       </c>
       <c r="B10" t="n">
-        <v>41.78108225023211</v>
+        <v>41.78108225023212</v>
       </c>
       <c r="C10" t="n">
         <v>28.16641908147814</v>
@@ -32956,16 +32956,16 @@
         <v>0</v>
       </c>
       <c r="F10" t="n">
-        <v>0.1828927078649639</v>
+        <v>0.1819975056831366</v>
       </c>
       <c r="G10" t="n">
-        <v>12.39196492897076</v>
+        <v>12.38392508235589</v>
       </c>
       <c r="H10" t="n">
-        <v>9.77817241192658</v>
+        <v>9.73863246755462</v>
       </c>
       <c r="I10" t="n">
-        <v>119.6988268102784</v>
+        <v>119.2758528849768</v>
       </c>
     </row>
     <row r="11">
@@ -32973,28 +32973,28 @@
         <v>7</v>
       </c>
       <c r="B11" t="n">
-        <v>61.14223800114821</v>
+        <v>61.14223800114824</v>
       </c>
       <c r="C11" t="n">
-        <v>60.74713835301056</v>
+        <v>60.74713835301059</v>
       </c>
       <c r="D11" t="n">
-        <v>45.51280931901064</v>
+        <v>45.51280931901067</v>
       </c>
       <c r="E11" t="n">
         <v>0</v>
       </c>
       <c r="F11" t="n">
-        <v>0.4576296287660261</v>
+        <v>0.4571451948733216</v>
       </c>
       <c r="G11" t="n">
-        <v>19.28177269154439</v>
+        <v>19.27735768219138</v>
       </c>
       <c r="H11" t="n">
-        <v>21.99820860748097</v>
+        <v>21.97822777339628</v>
       </c>
       <c r="I11" t="n">
-        <v>322.2080466077732</v>
+        <v>321.933174770834</v>
       </c>
     </row>
     <row r="12">
@@ -33014,16 +33014,16 @@
         <v>0</v>
       </c>
       <c r="F12" t="n">
-        <v>0.1988517685748913</v>
+        <v>0.1978140194203721</v>
       </c>
       <c r="G12" t="n">
-        <v>13.04717800782333</v>
+        <v>13.03882430333173</v>
       </c>
       <c r="H12" t="n">
-        <v>9.127605685007033</v>
+        <v>9.087281696664707</v>
       </c>
       <c r="I12" t="n">
-        <v>119.6806111297508</v>
+        <v>119.2198765360758</v>
       </c>
     </row>
     <row r="13">
@@ -33031,10 +33031,10 @@
         <v>9</v>
       </c>
       <c r="B13" t="n">
-        <v>54.63247889493581</v>
+        <v>54.63247889493582</v>
       </c>
       <c r="C13" t="n">
-        <v>44.54474124986053</v>
+        <v>44.54474124986052</v>
       </c>
       <c r="D13" t="n">
         <v>27.93394490032677</v>
@@ -33043,16 +33043,16 @@
         <v>0</v>
       </c>
       <c r="F13" t="n">
-        <v>0.2698735898512143</v>
+        <v>0.268965285726549</v>
       </c>
       <c r="G13" t="n">
-        <v>17.41369734255363</v>
+        <v>17.40635062031497</v>
       </c>
       <c r="H13" t="n">
-        <v>12.89770777523894</v>
+        <v>12.86103460392871</v>
       </c>
       <c r="I13" t="n">
-        <v>150.0959510764181</v>
+        <v>149.7149230069211</v>
       </c>
     </row>
     <row r="14">
@@ -33072,16 +33072,16 @@
         <v>0</v>
       </c>
       <c r="F14" t="n">
-        <v>0.3011512063944395</v>
+        <v>0.3006354868121535</v>
       </c>
       <c r="G14" t="n">
-        <v>8.661396426857959</v>
+        <v>8.656580324028059</v>
       </c>
       <c r="H14" t="n">
-        <v>13.83089701787053</v>
+        <v>13.81016996858531</v>
       </c>
       <c r="I14" t="n">
-        <v>163.8052853762883</v>
+        <v>163.5837739305726</v>
       </c>
     </row>
     <row r="15">
@@ -33101,16 +33101,16 @@
         <v>0</v>
       </c>
       <c r="F15" t="n">
-        <v>0.1806334834010438</v>
+        <v>0.1799484282907975</v>
       </c>
       <c r="G15" t="n">
-        <v>13.00386990808092</v>
+        <v>12.99666872504292</v>
       </c>
       <c r="H15" t="n">
-        <v>10.12717439409291</v>
+        <v>10.09703524857007</v>
       </c>
       <c r="I15" t="n">
-        <v>162.0260746954079</v>
+        <v>161.5951516488606</v>
       </c>
     </row>
     <row r="16">
@@ -33124,22 +33124,22 @@
         <v>31.83362279853924</v>
       </c>
       <c r="D16" t="n">
-        <v>28.59816654339057</v>
+        <v>28.59816654339058</v>
       </c>
       <c r="E16" t="n">
         <v>0</v>
       </c>
       <c r="F16" t="n">
-        <v>0.2835495034466092</v>
+        <v>0.2829620210090442</v>
       </c>
       <c r="G16" t="n">
-        <v>17.45121837568252</v>
+        <v>17.44550117398468</v>
       </c>
       <c r="H16" t="n">
-        <v>12.59655618040152</v>
+        <v>12.57319312760276</v>
       </c>
       <c r="I16" t="n">
-        <v>199.6728197534835</v>
+        <v>199.3256294240137</v>
       </c>
     </row>
     <row r="17">
@@ -33153,22 +33153,22 @@
         <v>33.28170402997478</v>
       </c>
       <c r="D17" t="n">
-        <v>28.25866050888087</v>
+        <v>28.25866050888086</v>
       </c>
       <c r="E17" t="n">
         <v>0</v>
       </c>
       <c r="F17" t="n">
-        <v>0.3080934639907371</v>
+        <v>0.3076443035961096</v>
       </c>
       <c r="G17" t="n">
-        <v>11.87478719129777</v>
+        <v>11.87070011839194</v>
       </c>
       <c r="H17" t="n">
-        <v>15.33851626020533</v>
+        <v>15.31936826691151</v>
       </c>
       <c r="I17" t="n">
-        <v>161.782402167535</v>
+        <v>161.6016799802302</v>
       </c>
     </row>
     <row r="18">
@@ -33188,16 +33188,16 @@
         <v>0</v>
       </c>
       <c r="F18" t="n">
-        <v>0.1986728483792979</v>
+        <v>0.1980622393885216</v>
       </c>
       <c r="G18" t="n">
-        <v>7.515035078162927</v>
+        <v>7.509560249008259</v>
       </c>
       <c r="H18" t="n">
-        <v>10.88858911859026</v>
+        <v>10.86336968105002</v>
       </c>
       <c r="I18" t="n">
-        <v>125.1647953419211</v>
+        <v>124.9119805800952</v>
       </c>
     </row>
     <row r="19">
@@ -33205,7 +33205,7 @@
         <v>15</v>
       </c>
       <c r="B19" t="n">
-        <v>60.81293094560962</v>
+        <v>60.81293094560964</v>
       </c>
       <c r="C19" t="n">
         <v>26.7659090291188</v>
@@ -33217,16 +33217,16 @@
         <v>0</v>
       </c>
       <c r="F19" t="n">
-        <v>0.2284806412457457</v>
+        <v>0.2277385615952088</v>
       </c>
       <c r="G19" t="n">
-        <v>23.56780943654176</v>
+        <v>23.56045540012909</v>
       </c>
       <c r="H19" t="n">
-        <v>12.32558156681304</v>
+        <v>12.29120082663007</v>
       </c>
       <c r="I19" t="n">
-        <v>139.8243560554008</v>
+        <v>139.4797652558497</v>
       </c>
     </row>
     <row r="20">
@@ -33234,28 +33234,28 @@
         <v>16</v>
       </c>
       <c r="B20" t="n">
-        <v>55.38451842463166</v>
+        <v>55.38451842463164</v>
       </c>
       <c r="C20" t="n">
         <v>46.17239692780733</v>
       </c>
       <c r="D20" t="n">
-        <v>22.03563810691456</v>
+        <v>22.03563810691455</v>
       </c>
       <c r="E20" t="n">
         <v>0</v>
       </c>
       <c r="F20" t="n">
-        <v>0.1907008731766341</v>
+        <v>0.1897218912668292</v>
       </c>
       <c r="G20" t="n">
-        <v>20.75025917449994</v>
+        <v>20.74168717677171</v>
       </c>
       <c r="H20" t="n">
-        <v>9.110382975062572</v>
+        <v>9.072733330925269</v>
       </c>
       <c r="I20" t="n">
-        <v>120.2496270590901</v>
+        <v>119.8217733823859</v>
       </c>
     </row>
     <row r="21">
@@ -33266,7 +33266,7 @@
         <v>66.30237972735833</v>
       </c>
       <c r="C21" t="n">
-        <v>57.80351162483012</v>
+        <v>57.80351162483011</v>
       </c>
       <c r="D21" t="n">
         <v>33.88168990583269</v>
@@ -33275,16 +33275,16 @@
         <v>0</v>
       </c>
       <c r="F21" t="n">
-        <v>0.3242675840238576</v>
+        <v>0.323291016194874</v>
       </c>
       <c r="G21" t="n">
-        <v>20.79998081925185</v>
+        <v>20.79042339317312</v>
       </c>
       <c r="H21" t="n">
-        <v>15.41054355760747</v>
+        <v>15.36973418471041</v>
       </c>
       <c r="I21" t="n">
-        <v>169.9528438473153</v>
+        <v>169.5455413783244</v>
       </c>
     </row>
     <row r="22">
@@ -33292,10 +33292,10 @@
         <v>18</v>
       </c>
       <c r="B22" t="n">
-        <v>41.08799334081929</v>
+        <v>41.08799334081928</v>
       </c>
       <c r="C22" t="n">
-        <v>46.60083323433581</v>
+        <v>46.6008332343358</v>
       </c>
       <c r="D22" t="n">
         <v>20.3762621326458</v>
@@ -33304,16 +33304,16 @@
         <v>0</v>
       </c>
       <c r="F22" t="n">
-        <v>0.1498909616974632</v>
+        <v>0.148910415241563</v>
       </c>
       <c r="G22" t="n">
-        <v>13.65605809315264</v>
+        <v>13.64731473410499</v>
       </c>
       <c r="H22" t="n">
-        <v>9.121456349640892</v>
+        <v>9.075341128781178</v>
       </c>
       <c r="I22" t="n">
-        <v>122.7816342042947</v>
+        <v>122.245039435543</v>
       </c>
     </row>
     <row r="23">
@@ -33321,28 +33321,28 @@
         <v>19</v>
       </c>
       <c r="B23" t="n">
-        <v>49.75838470930753</v>
+        <v>49.75838470930755</v>
       </c>
       <c r="C23" t="n">
         <v>52.78799998667375</v>
       </c>
       <c r="D23" t="n">
-        <v>23.23163937457254</v>
+        <v>23.23163937457255</v>
       </c>
       <c r="E23" t="n">
         <v>0</v>
       </c>
       <c r="F23" t="n">
-        <v>0.2576067933089225</v>
+        <v>0.256975097470258</v>
       </c>
       <c r="G23" t="n">
-        <v>19.48544158655185</v>
+        <v>19.47973884518765</v>
       </c>
       <c r="H23" t="n">
-        <v>11.37905626653466</v>
+        <v>11.35482680333876</v>
       </c>
       <c r="I23" t="n">
-        <v>168.2587882977884</v>
+        <v>167.9335038684891</v>
       </c>
     </row>
   </sheetData>
@@ -64365,16 +64365,16 @@
         <v>0</v>
       </c>
       <c r="F4" t="n">
-        <v>0.2226426886866232</v>
+        <v>0.2219318392297047</v>
       </c>
       <c r="G4" t="n">
-        <v>8.469872463667054</v>
+        <v>8.4641548902159</v>
       </c>
       <c r="H4" t="n">
-        <v>10.5294243124834</v>
+        <v>10.49954512098559</v>
       </c>
       <c r="I4" t="n">
-        <v>112.7945907329008</v>
+        <v>112.5093284711346</v>
       </c>
     </row>
     <row r="5">
@@ -64382,10 +64382,10 @@
         <v>1</v>
       </c>
       <c r="B5" t="n">
-        <v>56.59796205194618</v>
+        <v>56.59796205194617</v>
       </c>
       <c r="C5" t="n">
-        <v>49.33122531644389</v>
+        <v>49.3312253164439</v>
       </c>
       <c r="D5" t="n">
         <v>38.82250193611885</v>
@@ -64394,16 +64394,16 @@
         <v>0</v>
       </c>
       <c r="F5" t="n">
-        <v>0.4305126909909001</v>
+        <v>0.4293396388260296</v>
       </c>
       <c r="G5" t="n">
-        <v>14.509465459993</v>
+        <v>14.49830577882889</v>
       </c>
       <c r="H5" t="n">
-        <v>18.66024067480681</v>
+        <v>18.61137394158352</v>
       </c>
       <c r="I5" t="n">
-        <v>244.1956592000759</v>
+        <v>243.5819446413501</v>
       </c>
     </row>
     <row r="6">
@@ -64414,7 +64414,7 @@
         <v>60.36527931864049</v>
       </c>
       <c r="C6" t="n">
-        <v>37.30584150445954</v>
+        <v>37.30584150445955</v>
       </c>
       <c r="D6" t="n">
         <v>29.9421225468016</v>
@@ -64423,16 +64423,16 @@
         <v>0</v>
       </c>
       <c r="F6" t="n">
-        <v>0.3227450448039883</v>
+        <v>0.321955876214313</v>
       </c>
       <c r="G6" t="n">
-        <v>23.95864374550011</v>
+        <v>23.95140855171639</v>
       </c>
       <c r="H6" t="n">
-        <v>14.73619826108509</v>
+        <v>14.70081749942369</v>
       </c>
       <c r="I6" t="n">
-        <v>190.6467344268254</v>
+        <v>190.2055216805591</v>
       </c>
     </row>
     <row r="7">
@@ -64443,7 +64443,7 @@
         <v>47.52978202074475</v>
       </c>
       <c r="C7" t="n">
-        <v>34.07817747978756</v>
+        <v>34.07817747978753</v>
       </c>
       <c r="D7" t="n">
         <v>22.04718628232458</v>
@@ -64452,16 +64452,16 @@
         <v>0</v>
       </c>
       <c r="F7" t="n">
-        <v>0.2736033368053331</v>
+        <v>0.2731687856081902</v>
       </c>
       <c r="G7" t="n">
-        <v>11.1878061993129</v>
+        <v>11.18429109414926</v>
       </c>
       <c r="H7" t="n">
-        <v>10.8142179121468</v>
+        <v>10.79878878551236</v>
       </c>
       <c r="I7" t="n">
-        <v>157.5860257524591</v>
+        <v>157.375599935246</v>
       </c>
     </row>
     <row r="8">
@@ -64469,10 +64469,10 @@
         <v>4</v>
       </c>
       <c r="B8" t="n">
-        <v>42.18652330129802</v>
+        <v>42.18652330129801</v>
       </c>
       <c r="C8" t="n">
-        <v>38.18128986128745</v>
+        <v>38.18128986128744</v>
       </c>
       <c r="D8" t="n">
         <v>17.96811659279541</v>
@@ -64481,16 +64481,16 @@
         <v>0</v>
       </c>
       <c r="F8" t="n">
-        <v>0.182058859617705</v>
+        <v>0.1808906330600991</v>
       </c>
       <c r="G8" t="n">
-        <v>16.39040090626465</v>
+        <v>16.38030068860974</v>
       </c>
       <c r="H8" t="n">
-        <v>8.302804452937396</v>
+        <v>8.252794707650782</v>
       </c>
       <c r="I8" t="n">
-        <v>99.79465956542752</v>
+        <v>99.24932931533402</v>
       </c>
     </row>
     <row r="9">
@@ -64498,28 +64498,28 @@
         <v>5</v>
       </c>
       <c r="B9" t="n">
-        <v>47.80148205074729</v>
+        <v>47.80148205074727</v>
       </c>
       <c r="C9" t="n">
-        <v>46.89433384781874</v>
+        <v>46.89433384781873</v>
       </c>
       <c r="D9" t="n">
-        <v>27.44604625707638</v>
+        <v>27.44604625707637</v>
       </c>
       <c r="E9" t="n">
         <v>0</v>
       </c>
       <c r="F9" t="n">
-        <v>0.3077283677364666</v>
+        <v>0.3064254037666993</v>
       </c>
       <c r="G9" t="n">
-        <v>14.65114992748514</v>
+        <v>14.64079552208412</v>
       </c>
       <c r="H9" t="n">
-        <v>11.67563203681541</v>
+        <v>11.62908835286067</v>
       </c>
       <c r="I9" t="n">
-        <v>150.9891131193105</v>
+        <v>150.4240108631709</v>
       </c>
     </row>
     <row r="10">
@@ -64527,7 +64527,7 @@
         <v>6</v>
       </c>
       <c r="B10" t="n">
-        <v>41.78108225023211</v>
+        <v>41.78108225023212</v>
       </c>
       <c r="C10" t="n">
         <v>28.16641908147814</v>
@@ -64539,16 +64539,16 @@
         <v>0</v>
       </c>
       <c r="F10" t="n">
-        <v>0.2287587612792764</v>
+        <v>0.2278635590974491</v>
       </c>
       <c r="G10" t="n">
-        <v>13.15743815214263</v>
+        <v>13.14939830552775</v>
       </c>
       <c r="H10" t="n">
-        <v>10.36878049143791</v>
+        <v>10.32924054706595</v>
       </c>
       <c r="I10" t="n">
-        <v>119.9966934547782</v>
+        <v>119.5737195294767</v>
       </c>
     </row>
     <row r="11">
@@ -64556,28 +64556,28 @@
         <v>7</v>
       </c>
       <c r="B11" t="n">
-        <v>61.14223800114821</v>
+        <v>61.14223800114824</v>
       </c>
       <c r="C11" t="n">
-        <v>60.74713835301056</v>
+        <v>60.74713835301059</v>
       </c>
       <c r="D11" t="n">
-        <v>45.51280931901064</v>
+        <v>45.51280931901067</v>
       </c>
       <c r="E11" t="n">
         <v>0</v>
       </c>
       <c r="F11" t="n">
-        <v>0.503324209409892</v>
+        <v>0.5028397755171874</v>
       </c>
       <c r="G11" t="n">
-        <v>20.10306398687858</v>
+        <v>20.09864897752558</v>
       </c>
       <c r="H11" t="n">
-        <v>22.63690478345042</v>
+        <v>22.61692394936573</v>
       </c>
       <c r="I11" t="n">
-        <v>322.3410958734246</v>
+        <v>322.0662240364855</v>
       </c>
     </row>
     <row r="12">
@@ -64597,16 +64597,16 @@
         <v>0</v>
       </c>
       <c r="F12" t="n">
-        <v>0.2428223255254516</v>
+        <v>0.2417845763709323</v>
       </c>
       <c r="G12" t="n">
-        <v>13.80246906936783</v>
+        <v>13.79411536487622</v>
       </c>
       <c r="H12" t="n">
-        <v>9.721919057982165</v>
+        <v>9.681595069639842</v>
       </c>
       <c r="I12" t="n">
-        <v>119.4544269107221</v>
+        <v>118.993692317047</v>
       </c>
     </row>
     <row r="13">
@@ -64614,10 +64614,10 @@
         <v>9</v>
       </c>
       <c r="B13" t="n">
-        <v>54.63247889493581</v>
+        <v>54.63247889493582</v>
       </c>
       <c r="C13" t="n">
-        <v>44.54474124986053</v>
+        <v>44.54474124986052</v>
       </c>
       <c r="D13" t="n">
         <v>27.93394490032677</v>
@@ -64626,16 +64626,16 @@
         <v>0</v>
       </c>
       <c r="F13" t="n">
-        <v>0.310557305486143</v>
+        <v>0.3096490013614778</v>
       </c>
       <c r="G13" t="n">
-        <v>18.23349989618995</v>
+        <v>18.2261531739513</v>
       </c>
       <c r="H13" t="n">
-        <v>13.43878853662155</v>
+        <v>13.40211536531132</v>
       </c>
       <c r="I13" t="n">
-        <v>149.8992227799273</v>
+        <v>149.5181947104303</v>
       </c>
     </row>
     <row r="14">
@@ -64655,16 +64655,16 @@
         <v>0</v>
       </c>
       <c r="F14" t="n">
-        <v>0.3471520818961738</v>
+        <v>0.3466363623138878</v>
       </c>
       <c r="G14" t="n">
-        <v>9.510321978226601</v>
+        <v>9.5055058753967</v>
       </c>
       <c r="H14" t="n">
-        <v>14.42649448186016</v>
+        <v>14.40576743257493</v>
       </c>
       <c r="I14" t="n">
-        <v>164.0822755947224</v>
+        <v>163.8607641490067</v>
       </c>
     </row>
     <row r="15">
@@ -64684,16 +64684,16 @@
         <v>0</v>
       </c>
       <c r="F15" t="n">
-        <v>0.2241173522437029</v>
+        <v>0.2234322971334565</v>
       </c>
       <c r="G15" t="n">
-        <v>13.8613530356992</v>
+        <v>13.85415185266121</v>
       </c>
       <c r="H15" t="n">
-        <v>10.69959993637635</v>
+        <v>10.66946079085351</v>
       </c>
       <c r="I15" t="n">
-        <v>162.1543438249891</v>
+        <v>161.7234207784419</v>
       </c>
     </row>
     <row r="16">
@@ -64707,22 +64707,22 @@
         <v>31.83362279853924</v>
       </c>
       <c r="D16" t="n">
-        <v>28.59816654339057</v>
+        <v>28.59816654339058</v>
       </c>
       <c r="E16" t="n">
         <v>0</v>
       </c>
       <c r="F16" t="n">
-        <v>0.3264211870001267</v>
+        <v>0.3258337045625617</v>
       </c>
       <c r="G16" t="n">
-        <v>18.22795293924187</v>
+        <v>18.22223573754403</v>
       </c>
       <c r="H16" t="n">
-        <v>13.18029807911975</v>
+        <v>13.15693502632099</v>
       </c>
       <c r="I16" t="n">
-        <v>199.5713982832188</v>
+        <v>199.224207953749</v>
       </c>
     </row>
     <row r="17">
@@ -64736,22 +64736,22 @@
         <v>33.28170402997478</v>
       </c>
       <c r="D17" t="n">
-        <v>28.25866050888087</v>
+        <v>28.25866050888086</v>
       </c>
       <c r="E17" t="n">
         <v>0</v>
       </c>
       <c r="F17" t="n">
-        <v>0.350088433540239</v>
+        <v>0.3496392731456116</v>
       </c>
       <c r="G17" t="n">
-        <v>12.73902277611624</v>
+        <v>12.73493570321041</v>
       </c>
       <c r="H17" t="n">
-        <v>15.88886597397175</v>
+        <v>15.86971798067793</v>
       </c>
       <c r="I17" t="n">
-        <v>161.5245761193635</v>
+        <v>161.3438539320587</v>
       </c>
     </row>
     <row r="18">
@@ -64771,16 +64771,16 @@
         <v>0</v>
       </c>
       <c r="F18" t="n">
-        <v>0.2426242593999864</v>
+        <v>0.24201365040921</v>
       </c>
       <c r="G18" t="n">
-        <v>8.420945496893305</v>
+        <v>8.415470667738637</v>
       </c>
       <c r="H18" t="n">
-        <v>11.44288122693307</v>
+        <v>11.41766178939282</v>
       </c>
       <c r="I18" t="n">
-        <v>125.1746603805165</v>
+        <v>124.9218456186907</v>
       </c>
     </row>
     <row r="19">
@@ -64788,7 +64788,7 @@
         <v>15</v>
       </c>
       <c r="B19" t="n">
-        <v>60.81293094560962</v>
+        <v>60.81293094560964</v>
       </c>
       <c r="C19" t="n">
         <v>26.7659090291188</v>
@@ -64800,16 +64800,16 @@
         <v>0</v>
       </c>
       <c r="F19" t="n">
-        <v>0.2696060254004255</v>
+        <v>0.2688639457498886</v>
       </c>
       <c r="G19" t="n">
-        <v>24.31509319187035</v>
+        <v>24.30773915545769</v>
       </c>
       <c r="H19" t="n">
-        <v>12.93852458413188</v>
+        <v>12.90414384394891</v>
       </c>
       <c r="I19" t="n">
-        <v>139.5398397295428</v>
+        <v>139.1952489299917</v>
       </c>
     </row>
     <row r="20">
@@ -64817,28 +64817,28 @@
         <v>16</v>
       </c>
       <c r="B20" t="n">
-        <v>55.38451842463166</v>
+        <v>55.38451842463164</v>
       </c>
       <c r="C20" t="n">
         <v>46.17239692780733</v>
       </c>
       <c r="D20" t="n">
-        <v>22.03563810691456</v>
+        <v>22.03563810691455</v>
       </c>
       <c r="E20" t="n">
         <v>0</v>
       </c>
       <c r="F20" t="n">
-        <v>0.2378816227702426</v>
+        <v>0.2369026408604376</v>
       </c>
       <c r="G20" t="n">
-        <v>21.66289509605461</v>
+        <v>21.65432309832638</v>
       </c>
       <c r="H20" t="n">
-        <v>9.69621850227437</v>
+        <v>9.658568858137064</v>
       </c>
       <c r="I20" t="n">
-        <v>119.9391294963863</v>
+        <v>119.5112758196821</v>
       </c>
     </row>
     <row r="21">
@@ -64849,7 +64849,7 @@
         <v>66.30237972735833</v>
       </c>
       <c r="C21" t="n">
-        <v>57.80351162483012</v>
+        <v>57.80351162483011</v>
       </c>
       <c r="D21" t="n">
         <v>33.88168990583269</v>
@@ -64858,16 +64858,16 @@
         <v>0</v>
       </c>
       <c r="F21" t="n">
-        <v>0.3706568234914313</v>
+        <v>0.3696802556624476</v>
       </c>
       <c r="G21" t="n">
-        <v>21.60099791109455</v>
+        <v>21.59144048501582</v>
       </c>
       <c r="H21" t="n">
-        <v>15.92753996952865</v>
+        <v>15.88673059663159</v>
       </c>
       <c r="I21" t="n">
-        <v>170.1680327364381</v>
+        <v>169.7607302674471</v>
       </c>
     </row>
     <row r="22">
@@ -64875,10 +64875,10 @@
         <v>18</v>
       </c>
       <c r="B22" t="n">
-        <v>41.08799334081929</v>
+        <v>41.08799334081928</v>
       </c>
       <c r="C22" t="n">
-        <v>46.60083323433581</v>
+        <v>46.6008332343358</v>
       </c>
       <c r="D22" t="n">
         <v>20.3762621326458</v>
@@ -64887,16 +64887,16 @@
         <v>0</v>
       </c>
       <c r="F22" t="n">
-        <v>0.1905683301484326</v>
+        <v>0.1895877836925325</v>
       </c>
       <c r="G22" t="n">
-        <v>14.48784769406263</v>
+        <v>14.47910433501498</v>
       </c>
       <c r="H22" t="n">
-        <v>9.659797959170247</v>
+        <v>9.613682738310532</v>
       </c>
       <c r="I22" t="n">
-        <v>122.9287037044791</v>
+        <v>122.3921089357275</v>
       </c>
     </row>
     <row r="23">
@@ -64904,28 +64904,28 @@
         <v>19</v>
       </c>
       <c r="B23" t="n">
-        <v>49.75838470930753</v>
+        <v>49.75838470930755</v>
       </c>
       <c r="C23" t="n">
         <v>52.78799998667375</v>
       </c>
       <c r="D23" t="n">
-        <v>23.23163937457254</v>
+        <v>23.23163937457255</v>
       </c>
       <c r="E23" t="n">
         <v>0</v>
       </c>
       <c r="F23" t="n">
-        <v>0.2968945164363855</v>
+        <v>0.296262820597721</v>
       </c>
       <c r="G23" t="n">
-        <v>20.28741962090382</v>
+        <v>20.28171687953963</v>
       </c>
       <c r="H23" t="n">
-        <v>11.93024052990339</v>
+        <v>11.90601106670749</v>
       </c>
       <c r="I23" t="n">
-        <v>167.7357216538</v>
+        <v>167.4104372245007</v>
       </c>
     </row>
   </sheetData>

--- a/dmsan/newgen/scores/South Africa/sys_uncertainties.xlsx
+++ b/dmsan/newgen/scores/South Africa/sys_uncertainties.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet name="sysA-param" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet name="sysA-results" sheetId="2" state="visible" r:id="rId2"/>
-    <sheet name="sysB-param" sheetId="3" state="visible" r:id="rId3"/>
-    <sheet name="sysB-results" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="sysA-param" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="sysA-results" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="sysB-param" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="sysB-results" sheetId="4" state="visible" r:id="rId4"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -32770,13 +32770,13 @@
         <v>0</v>
       </c>
       <c r="B4" t="n">
-        <v>46.4420083498342</v>
+        <v>46.44200834983418</v>
       </c>
       <c r="C4" t="n">
         <v>33.68192824873992</v>
       </c>
       <c r="D4" t="n">
-        <v>18.92286095893871</v>
+        <v>18.9228609589387</v>
       </c>
       <c r="E4" t="n">
         <v>0</v>
@@ -32785,7 +32785,7 @@
         <v>0.1752962353458843</v>
       </c>
       <c r="G4" t="n">
-        <v>7.680510291410595</v>
+        <v>7.680510291410593</v>
       </c>
       <c r="H4" t="n">
         <v>9.890773123212169</v>
@@ -32802,10 +32802,10 @@
         <v>56.59796205194617</v>
       </c>
       <c r="C5" t="n">
-        <v>49.3312253164439</v>
+        <v>49.33122531644388</v>
       </c>
       <c r="D5" t="n">
-        <v>38.82250193611885</v>
+        <v>38.82250193611884</v>
       </c>
       <c r="E5" t="n">
         <v>0</v>
@@ -32828,28 +32828,28 @@
         <v>2</v>
       </c>
       <c r="B6" t="n">
-        <v>60.36527931864049</v>
+        <v>60.36527931864045</v>
       </c>
       <c r="C6" t="n">
-        <v>37.30584150445955</v>
+        <v>37.30584150445948</v>
       </c>
       <c r="D6" t="n">
-        <v>29.9421225468016</v>
+        <v>29.94212254680151</v>
       </c>
       <c r="E6" t="n">
         <v>0</v>
       </c>
       <c r="F6" t="n">
-        <v>0.27572929180563</v>
+        <v>0.2757292918056292</v>
       </c>
       <c r="G6" t="n">
-        <v>23.19471968698534</v>
+        <v>23.19471968698536</v>
       </c>
       <c r="H6" t="n">
-        <v>14.12676905282256</v>
+        <v>14.12676905282252</v>
       </c>
       <c r="I6" t="n">
-        <v>189.93155365243</v>
+        <v>189.9315536524295</v>
       </c>
     </row>
     <row r="7">
@@ -32857,13 +32857,13 @@
         <v>3</v>
       </c>
       <c r="B7" t="n">
-        <v>47.52978202074475</v>
+        <v>47.52978202074473</v>
       </c>
       <c r="C7" t="n">
         <v>34.07817747978753</v>
       </c>
       <c r="D7" t="n">
-        <v>22.04718628232458</v>
+        <v>22.04718628232457</v>
       </c>
       <c r="E7" t="n">
         <v>0</v>
@@ -32886,13 +32886,13 @@
         <v>4</v>
       </c>
       <c r="B8" t="n">
-        <v>42.18652330129801</v>
+        <v>42.18652330129804</v>
       </c>
       <c r="C8" t="n">
-        <v>38.18128986128744</v>
+        <v>38.18128986128747</v>
       </c>
       <c r="D8" t="n">
-        <v>17.96811659279541</v>
+        <v>17.96811659279545</v>
       </c>
       <c r="E8" t="n">
         <v>0</v>
@@ -32901,13 +32901,13 @@
         <v>0.1349719729975042</v>
       </c>
       <c r="G8" t="n">
-        <v>15.53087313740339</v>
+        <v>15.53087313740338</v>
       </c>
       <c r="H8" t="n">
-        <v>7.631378607625457</v>
+        <v>7.631378607625456</v>
       </c>
       <c r="I8" t="n">
-        <v>99.76798311721235</v>
+        <v>99.76798311721237</v>
       </c>
     </row>
     <row r="9">
@@ -32918,19 +32918,19 @@
         <v>47.80148205074727</v>
       </c>
       <c r="C9" t="n">
-        <v>46.89433384781873</v>
+        <v>46.89433384781871</v>
       </c>
       <c r="D9" t="n">
-        <v>27.44604625707637</v>
+        <v>27.44604625707636</v>
       </c>
       <c r="E9" t="n">
         <v>0</v>
       </c>
       <c r="F9" t="n">
-        <v>0.2649466301375716</v>
+        <v>0.2649466301375715</v>
       </c>
       <c r="G9" t="n">
-        <v>13.79545948223989</v>
+        <v>13.7954594822399</v>
       </c>
       <c r="H9" t="n">
         <v>11.09682666375222</v>
@@ -32950,7 +32950,7 @@
         <v>28.16641908147814</v>
       </c>
       <c r="D10" t="n">
-        <v>21.80676177663736</v>
+        <v>21.80676177663737</v>
       </c>
       <c r="E10" t="n">
         <v>0</v>
@@ -32973,7 +32973,7 @@
         <v>7</v>
       </c>
       <c r="B11" t="n">
-        <v>61.14223800114824</v>
+        <v>61.14223800114826</v>
       </c>
       <c r="C11" t="n">
         <v>60.74713835301059</v>
@@ -33002,10 +33002,10 @@
         <v>8</v>
       </c>
       <c r="B12" t="n">
-        <v>42.7488166146905</v>
+        <v>42.74881661469052</v>
       </c>
       <c r="C12" t="n">
-        <v>29.70102046335878</v>
+        <v>29.70102046335877</v>
       </c>
       <c r="D12" t="n">
         <v>19.47195058433949</v>
@@ -33014,16 +33014,16 @@
         <v>0</v>
       </c>
       <c r="F12" t="n">
-        <v>0.1978140194203721</v>
+        <v>0.197814019420372</v>
       </c>
       <c r="G12" t="n">
         <v>13.03882430333173</v>
       </c>
       <c r="H12" t="n">
-        <v>9.087281696664707</v>
+        <v>9.087281696664702</v>
       </c>
       <c r="I12" t="n">
-        <v>119.2198765360758</v>
+        <v>119.2198765360757</v>
       </c>
     </row>
     <row r="13">
@@ -33031,28 +33031,28 @@
         <v>9</v>
       </c>
       <c r="B13" t="n">
-        <v>54.63247889493582</v>
+        <v>54.63247889493585</v>
       </c>
       <c r="C13" t="n">
-        <v>44.54474124986052</v>
+        <v>44.54474124986056</v>
       </c>
       <c r="D13" t="n">
-        <v>27.93394490032677</v>
+        <v>27.93394490032681</v>
       </c>
       <c r="E13" t="n">
         <v>0</v>
       </c>
       <c r="F13" t="n">
-        <v>0.268965285726549</v>
+        <v>0.2689652857265495</v>
       </c>
       <c r="G13" t="n">
         <v>17.40635062031497</v>
       </c>
       <c r="H13" t="n">
-        <v>12.86103460392871</v>
+        <v>12.86103460392873</v>
       </c>
       <c r="I13" t="n">
-        <v>149.7149230069211</v>
+        <v>149.7149230069213</v>
       </c>
     </row>
     <row r="14">
@@ -33060,7 +33060,7 @@
         <v>10</v>
       </c>
       <c r="B14" t="n">
-        <v>55.06914188617043</v>
+        <v>55.06914188617044</v>
       </c>
       <c r="C14" t="n">
         <v>26.4286156139465</v>
@@ -33072,10 +33072,10 @@
         <v>0</v>
       </c>
       <c r="F14" t="n">
-        <v>0.3006354868121535</v>
+        <v>0.3006354868121536</v>
       </c>
       <c r="G14" t="n">
-        <v>8.656580324028059</v>
+        <v>8.656580324028058</v>
       </c>
       <c r="H14" t="n">
         <v>13.81016996858531</v>
@@ -33089,28 +33089,28 @@
         <v>11</v>
       </c>
       <c r="B15" t="n">
-        <v>45.9905715458019</v>
+        <v>45.99057154580187</v>
       </c>
       <c r="C15" t="n">
-        <v>49.28238261766792</v>
+        <v>49.28238261766788</v>
       </c>
       <c r="D15" t="n">
-        <v>22.61494946315964</v>
+        <v>22.61494946315959</v>
       </c>
       <c r="E15" t="n">
         <v>0</v>
       </c>
       <c r="F15" t="n">
-        <v>0.1799484282907975</v>
+        <v>0.1799484282907971</v>
       </c>
       <c r="G15" t="n">
         <v>12.99666872504292</v>
       </c>
       <c r="H15" t="n">
-        <v>10.09703524857007</v>
+        <v>10.09703524857005</v>
       </c>
       <c r="I15" t="n">
-        <v>161.5951516488606</v>
+        <v>161.5951516488603</v>
       </c>
     </row>
     <row r="16">
@@ -33124,7 +33124,7 @@
         <v>31.83362279853924</v>
       </c>
       <c r="D16" t="n">
-        <v>28.59816654339058</v>
+        <v>28.59816654339059</v>
       </c>
       <c r="E16" t="n">
         <v>0</v>
@@ -33153,7 +33153,7 @@
         <v>33.28170402997478</v>
       </c>
       <c r="D17" t="n">
-        <v>28.25866050888086</v>
+        <v>28.25866050888087</v>
       </c>
       <c r="E17" t="n">
         <v>0</v>
@@ -33179,10 +33179,10 @@
         <v>63.01933390140233</v>
       </c>
       <c r="C18" t="n">
-        <v>37.30586477558536</v>
+        <v>37.30586477558537</v>
       </c>
       <c r="D18" t="n">
-        <v>22.08968525621831</v>
+        <v>22.08968525621832</v>
       </c>
       <c r="E18" t="n">
         <v>0</v>
@@ -33191,7 +33191,7 @@
         <v>0.1980622393885216</v>
       </c>
       <c r="G18" t="n">
-        <v>7.509560249008259</v>
+        <v>7.509560249008257</v>
       </c>
       <c r="H18" t="n">
         <v>10.86336968105002</v>
@@ -33205,22 +33205,22 @@
         <v>15</v>
       </c>
       <c r="B19" t="n">
-        <v>60.81293094560964</v>
+        <v>60.81293094560962</v>
       </c>
       <c r="C19" t="n">
-        <v>26.7659090291188</v>
+        <v>26.76590902911877</v>
       </c>
       <c r="D19" t="n">
-        <v>25.18233774410814</v>
+        <v>25.18233774410811</v>
       </c>
       <c r="E19" t="n">
         <v>0</v>
       </c>
       <c r="F19" t="n">
-        <v>0.2277385615952088</v>
+        <v>0.2277385615952086</v>
       </c>
       <c r="G19" t="n">
-        <v>23.56045540012909</v>
+        <v>23.5604554001291</v>
       </c>
       <c r="H19" t="n">
         <v>12.29120082663007</v>
@@ -33234,28 +33234,28 @@
         <v>16</v>
       </c>
       <c r="B20" t="n">
-        <v>55.38451842463164</v>
+        <v>55.38451842463169</v>
       </c>
       <c r="C20" t="n">
-        <v>46.17239692780733</v>
+        <v>46.17239692780737</v>
       </c>
       <c r="D20" t="n">
-        <v>22.03563810691455</v>
+        <v>22.0356381069146</v>
       </c>
       <c r="E20" t="n">
         <v>0</v>
       </c>
       <c r="F20" t="n">
-        <v>0.1897218912668292</v>
+        <v>0.1897218912668296</v>
       </c>
       <c r="G20" t="n">
         <v>20.74168717677171</v>
       </c>
       <c r="H20" t="n">
-        <v>9.072733330925269</v>
+        <v>9.072733330925287</v>
       </c>
       <c r="I20" t="n">
-        <v>119.8217733823859</v>
+        <v>119.8217733823861</v>
       </c>
     </row>
     <row r="21">
@@ -33263,10 +33263,10 @@
         <v>17</v>
       </c>
       <c r="B21" t="n">
-        <v>66.30237972735833</v>
+        <v>66.3023797273583</v>
       </c>
       <c r="C21" t="n">
-        <v>57.80351162483011</v>
+        <v>57.80351162483009</v>
       </c>
       <c r="D21" t="n">
         <v>33.88168990583269</v>
@@ -33275,16 +33275,16 @@
         <v>0</v>
       </c>
       <c r="F21" t="n">
-        <v>0.323291016194874</v>
+        <v>0.3232910161948742</v>
       </c>
       <c r="G21" t="n">
         <v>20.79042339317312</v>
       </c>
       <c r="H21" t="n">
-        <v>15.36973418471041</v>
+        <v>15.36973418471042</v>
       </c>
       <c r="I21" t="n">
-        <v>169.5455413783244</v>
+        <v>169.5455413783245</v>
       </c>
     </row>
     <row r="22">
@@ -33292,28 +33292,28 @@
         <v>18</v>
       </c>
       <c r="B22" t="n">
-        <v>41.08799334081928</v>
+        <v>41.08799334081931</v>
       </c>
       <c r="C22" t="n">
-        <v>46.6008332343358</v>
+        <v>46.60083323433582</v>
       </c>
       <c r="D22" t="n">
-        <v>20.3762621326458</v>
+        <v>20.37626213264584</v>
       </c>
       <c r="E22" t="n">
         <v>0</v>
       </c>
       <c r="F22" t="n">
-        <v>0.148910415241563</v>
+        <v>0.1489104152415637</v>
       </c>
       <c r="G22" t="n">
         <v>13.64731473410499</v>
       </c>
       <c r="H22" t="n">
-        <v>9.075341128781178</v>
+        <v>9.075341128781211</v>
       </c>
       <c r="I22" t="n">
-        <v>122.245039435543</v>
+        <v>122.2450394355434</v>
       </c>
     </row>
     <row r="23">
@@ -33321,13 +33321,13 @@
         <v>19</v>
       </c>
       <c r="B23" t="n">
-        <v>49.75838470930755</v>
+        <v>49.75838470930753</v>
       </c>
       <c r="C23" t="n">
-        <v>52.78799998667375</v>
+        <v>52.78799998667374</v>
       </c>
       <c r="D23" t="n">
-        <v>23.23163937457255</v>
+        <v>23.23163937457254</v>
       </c>
       <c r="E23" t="n">
         <v>0</v>
@@ -64353,13 +64353,13 @@
         <v>0</v>
       </c>
       <c r="B4" t="n">
-        <v>46.4420083498342</v>
+        <v>46.44200834983418</v>
       </c>
       <c r="C4" t="n">
         <v>33.68192824873992</v>
       </c>
       <c r="D4" t="n">
-        <v>18.92286095893871</v>
+        <v>18.9228609589387</v>
       </c>
       <c r="E4" t="n">
         <v>0</v>
@@ -64368,7 +64368,7 @@
         <v>0.2219318392297047</v>
       </c>
       <c r="G4" t="n">
-        <v>8.4641548902159</v>
+        <v>8.464154890215898</v>
       </c>
       <c r="H4" t="n">
         <v>10.49954512098559</v>
@@ -64385,10 +64385,10 @@
         <v>56.59796205194617</v>
       </c>
       <c r="C5" t="n">
-        <v>49.3312253164439</v>
+        <v>49.33122531644388</v>
       </c>
       <c r="D5" t="n">
-        <v>38.82250193611885</v>
+        <v>38.82250193611884</v>
       </c>
       <c r="E5" t="n">
         <v>0</v>
@@ -64411,28 +64411,28 @@
         <v>2</v>
       </c>
       <c r="B6" t="n">
-        <v>60.36527931864049</v>
+        <v>60.36527931864045</v>
       </c>
       <c r="C6" t="n">
-        <v>37.30584150445955</v>
+        <v>37.30584150445948</v>
       </c>
       <c r="D6" t="n">
-        <v>29.9421225468016</v>
+        <v>29.94212254680151</v>
       </c>
       <c r="E6" t="n">
         <v>0</v>
       </c>
       <c r="F6" t="n">
-        <v>0.321955876214313</v>
+        <v>0.3219558762143123</v>
       </c>
       <c r="G6" t="n">
-        <v>23.95140855171639</v>
+        <v>23.95140855171641</v>
       </c>
       <c r="H6" t="n">
-        <v>14.70081749942369</v>
+        <v>14.70081749942365</v>
       </c>
       <c r="I6" t="n">
-        <v>190.2055216805591</v>
+        <v>190.2055216805587</v>
       </c>
     </row>
     <row r="7">
@@ -64440,13 +64440,13 @@
         <v>3</v>
       </c>
       <c r="B7" t="n">
-        <v>47.52978202074475</v>
+        <v>47.52978202074473</v>
       </c>
       <c r="C7" t="n">
         <v>34.07817747978753</v>
       </c>
       <c r="D7" t="n">
-        <v>22.04718628232458</v>
+        <v>22.04718628232457</v>
       </c>
       <c r="E7" t="n">
         <v>0</v>
@@ -64469,13 +64469,13 @@
         <v>4</v>
       </c>
       <c r="B8" t="n">
-        <v>42.18652330129801</v>
+        <v>42.18652330129804</v>
       </c>
       <c r="C8" t="n">
-        <v>38.18128986128744</v>
+        <v>38.18128986128747</v>
       </c>
       <c r="D8" t="n">
-        <v>17.96811659279541</v>
+        <v>17.96811659279545</v>
       </c>
       <c r="E8" t="n">
         <v>0</v>
@@ -64484,13 +64484,13 @@
         <v>0.1808906330600991</v>
       </c>
       <c r="G8" t="n">
-        <v>16.38030068860974</v>
+        <v>16.38030068860973</v>
       </c>
       <c r="H8" t="n">
         <v>8.252794707650782</v>
       </c>
       <c r="I8" t="n">
-        <v>99.24932931533402</v>
+        <v>99.24932931533404</v>
       </c>
     </row>
     <row r="9">
@@ -64501,10 +64501,10 @@
         <v>47.80148205074727</v>
       </c>
       <c r="C9" t="n">
-        <v>46.89433384781873</v>
+        <v>46.89433384781871</v>
       </c>
       <c r="D9" t="n">
-        <v>27.44604625707637</v>
+        <v>27.44604625707636</v>
       </c>
       <c r="E9" t="n">
         <v>0</v>
@@ -64516,7 +64516,7 @@
         <v>14.64079552208412</v>
       </c>
       <c r="H9" t="n">
-        <v>11.62908835286067</v>
+        <v>11.62908835286066</v>
       </c>
       <c r="I9" t="n">
         <v>150.4240108631709</v>
@@ -64533,7 +64533,7 @@
         <v>28.16641908147814</v>
       </c>
       <c r="D10" t="n">
-        <v>21.80676177663736</v>
+        <v>21.80676177663737</v>
       </c>
       <c r="E10" t="n">
         <v>0</v>
@@ -64556,7 +64556,7 @@
         <v>7</v>
       </c>
       <c r="B11" t="n">
-        <v>61.14223800114824</v>
+        <v>61.14223800114826</v>
       </c>
       <c r="C11" t="n">
         <v>60.74713835301059</v>
@@ -64585,10 +64585,10 @@
         <v>8</v>
       </c>
       <c r="B12" t="n">
-        <v>42.7488166146905</v>
+        <v>42.74881661469052</v>
       </c>
       <c r="C12" t="n">
-        <v>29.70102046335878</v>
+        <v>29.70102046335877</v>
       </c>
       <c r="D12" t="n">
         <v>19.47195058433949</v>
@@ -64597,16 +64597,16 @@
         <v>0</v>
       </c>
       <c r="F12" t="n">
-        <v>0.2417845763709323</v>
+        <v>0.2417845763709322</v>
       </c>
       <c r="G12" t="n">
         <v>13.79411536487622</v>
       </c>
       <c r="H12" t="n">
-        <v>9.681595069639842</v>
+        <v>9.681595069639837</v>
       </c>
       <c r="I12" t="n">
-        <v>118.993692317047</v>
+        <v>118.9936923170469</v>
       </c>
     </row>
     <row r="13">
@@ -64614,28 +64614,28 @@
         <v>9</v>
       </c>
       <c r="B13" t="n">
-        <v>54.63247889493582</v>
+        <v>54.63247889493585</v>
       </c>
       <c r="C13" t="n">
-        <v>44.54474124986052</v>
+        <v>44.54474124986056</v>
       </c>
       <c r="D13" t="n">
-        <v>27.93394490032677</v>
+        <v>27.93394490032681</v>
       </c>
       <c r="E13" t="n">
         <v>0</v>
       </c>
       <c r="F13" t="n">
-        <v>0.3096490013614778</v>
+        <v>0.3096490013614782</v>
       </c>
       <c r="G13" t="n">
         <v>18.2261531739513</v>
       </c>
       <c r="H13" t="n">
-        <v>13.40211536531132</v>
+        <v>13.40211536531133</v>
       </c>
       <c r="I13" t="n">
-        <v>149.5181947104303</v>
+        <v>149.5181947104305</v>
       </c>
     </row>
     <row r="14">
@@ -64643,7 +64643,7 @@
         <v>10</v>
       </c>
       <c r="B14" t="n">
-        <v>55.06914188617043</v>
+        <v>55.06914188617044</v>
       </c>
       <c r="C14" t="n">
         <v>26.4286156139465</v>
@@ -64658,7 +64658,7 @@
         <v>0.3466363623138878</v>
       </c>
       <c r="G14" t="n">
-        <v>9.5055058753967</v>
+        <v>9.505505875396699</v>
       </c>
       <c r="H14" t="n">
         <v>14.40576743257493</v>
@@ -64672,28 +64672,28 @@
         <v>11</v>
       </c>
       <c r="B15" t="n">
-        <v>45.9905715458019</v>
+        <v>45.99057154580187</v>
       </c>
       <c r="C15" t="n">
-        <v>49.28238261766792</v>
+        <v>49.28238261766788</v>
       </c>
       <c r="D15" t="n">
-        <v>22.61494946315964</v>
+        <v>22.61494946315959</v>
       </c>
       <c r="E15" t="n">
         <v>0</v>
       </c>
       <c r="F15" t="n">
-        <v>0.2234322971334565</v>
+        <v>0.2234322971334562</v>
       </c>
       <c r="G15" t="n">
         <v>13.85415185266121</v>
       </c>
       <c r="H15" t="n">
-        <v>10.66946079085351</v>
+        <v>10.66946079085349</v>
       </c>
       <c r="I15" t="n">
-        <v>161.7234207784419</v>
+        <v>161.7234207784416</v>
       </c>
     </row>
     <row r="16">
@@ -64707,7 +64707,7 @@
         <v>31.83362279853924</v>
       </c>
       <c r="D16" t="n">
-        <v>28.59816654339058</v>
+        <v>28.59816654339059</v>
       </c>
       <c r="E16" t="n">
         <v>0</v>
@@ -64722,7 +64722,7 @@
         <v>13.15693502632099</v>
       </c>
       <c r="I16" t="n">
-        <v>199.224207953749</v>
+        <v>199.2242079537491</v>
       </c>
     </row>
     <row r="17">
@@ -64736,7 +64736,7 @@
         <v>33.28170402997478</v>
       </c>
       <c r="D17" t="n">
-        <v>28.25866050888086</v>
+        <v>28.25866050888087</v>
       </c>
       <c r="E17" t="n">
         <v>0</v>
@@ -64745,7 +64745,7 @@
         <v>0.3496392731456116</v>
       </c>
       <c r="G17" t="n">
-        <v>12.73493570321041</v>
+        <v>12.73493570321042</v>
       </c>
       <c r="H17" t="n">
         <v>15.86971798067793</v>
@@ -64762,10 +64762,10 @@
         <v>63.01933390140233</v>
       </c>
       <c r="C18" t="n">
-        <v>37.30586477558536</v>
+        <v>37.30586477558537</v>
       </c>
       <c r="D18" t="n">
-        <v>22.08968525621831</v>
+        <v>22.08968525621832</v>
       </c>
       <c r="E18" t="n">
         <v>0</v>
@@ -64788,28 +64788,28 @@
         <v>15</v>
       </c>
       <c r="B19" t="n">
-        <v>60.81293094560964</v>
+        <v>60.81293094560962</v>
       </c>
       <c r="C19" t="n">
-        <v>26.7659090291188</v>
+        <v>26.76590902911877</v>
       </c>
       <c r="D19" t="n">
-        <v>25.18233774410814</v>
+        <v>25.18233774410811</v>
       </c>
       <c r="E19" t="n">
         <v>0</v>
       </c>
       <c r="F19" t="n">
-        <v>0.2688639457498886</v>
+        <v>0.2688639457498885</v>
       </c>
       <c r="G19" t="n">
         <v>24.30773915545769</v>
       </c>
       <c r="H19" t="n">
-        <v>12.90414384394891</v>
+        <v>12.9041438439489</v>
       </c>
       <c r="I19" t="n">
-        <v>139.1952489299917</v>
+        <v>139.1952489299916</v>
       </c>
     </row>
     <row r="20">
@@ -64817,28 +64817,28 @@
         <v>16</v>
       </c>
       <c r="B20" t="n">
-        <v>55.38451842463164</v>
+        <v>55.38451842463169</v>
       </c>
       <c r="C20" t="n">
-        <v>46.17239692780733</v>
+        <v>46.17239692780737</v>
       </c>
       <c r="D20" t="n">
-        <v>22.03563810691455</v>
+        <v>22.0356381069146</v>
       </c>
       <c r="E20" t="n">
         <v>0</v>
       </c>
       <c r="F20" t="n">
-        <v>0.2369026408604376</v>
+        <v>0.2369026408604381</v>
       </c>
       <c r="G20" t="n">
         <v>21.65432309832638</v>
       </c>
       <c r="H20" t="n">
-        <v>9.658568858137064</v>
+        <v>9.658568858137082</v>
       </c>
       <c r="I20" t="n">
-        <v>119.5112758196821</v>
+        <v>119.5112758196823</v>
       </c>
     </row>
     <row r="21">
@@ -64846,10 +64846,10 @@
         <v>17</v>
       </c>
       <c r="B21" t="n">
-        <v>66.30237972735833</v>
+        <v>66.3023797273583</v>
       </c>
       <c r="C21" t="n">
-        <v>57.80351162483011</v>
+        <v>57.80351162483009</v>
       </c>
       <c r="D21" t="n">
         <v>33.88168990583269</v>
@@ -64858,7 +64858,7 @@
         <v>0</v>
       </c>
       <c r="F21" t="n">
-        <v>0.3696802556624476</v>
+        <v>0.3696802556624478</v>
       </c>
       <c r="G21" t="n">
         <v>21.59144048501582</v>
@@ -64867,7 +64867,7 @@
         <v>15.88673059663159</v>
       </c>
       <c r="I21" t="n">
-        <v>169.7607302674471</v>
+        <v>169.7607302674472</v>
       </c>
     </row>
     <row r="22">
@@ -64875,28 +64875,28 @@
         <v>18</v>
       </c>
       <c r="B22" t="n">
-        <v>41.08799334081928</v>
+        <v>41.08799334081931</v>
       </c>
       <c r="C22" t="n">
-        <v>46.6008332343358</v>
+        <v>46.60083323433582</v>
       </c>
       <c r="D22" t="n">
-        <v>20.3762621326458</v>
+        <v>20.37626213264584</v>
       </c>
       <c r="E22" t="n">
         <v>0</v>
       </c>
       <c r="F22" t="n">
-        <v>0.1895877836925325</v>
+        <v>0.1895877836925331</v>
       </c>
       <c r="G22" t="n">
         <v>14.47910433501498</v>
       </c>
       <c r="H22" t="n">
-        <v>9.613682738310532</v>
+        <v>9.613682738310564</v>
       </c>
       <c r="I22" t="n">
-        <v>122.3921089357275</v>
+        <v>122.3921089357279</v>
       </c>
     </row>
     <row r="23">
@@ -64904,13 +64904,13 @@
         <v>19</v>
       </c>
       <c r="B23" t="n">
-        <v>49.75838470930755</v>
+        <v>49.75838470930753</v>
       </c>
       <c r="C23" t="n">
-        <v>52.78799998667375</v>
+        <v>52.78799998667374</v>
       </c>
       <c r="D23" t="n">
-        <v>23.23163937457255</v>
+        <v>23.23163937457254</v>
       </c>
       <c r="E23" t="n">
         <v>0</v>
